--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_44.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_44.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_0</t>
+          <t>model_1_44_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.998949809573352</v>
+        <v>0.9465743511890188</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8221255067641572</v>
+        <v>0.7207325155970781</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8122823060455348</v>
+        <v>0.7835992201956563</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9994994831389893</v>
+        <v>0.9737403607533623</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004371445687680229</v>
+        <v>0.1715116759676578</v>
       </c>
       <c r="G2" t="n">
-        <v>1.189447555304811</v>
+        <v>1.867462954110865</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6714553067778425</v>
+        <v>0.774053041721982</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001970279923801375</v>
+        <v>0.08362822830683339</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1855957016110302</v>
+        <v>0.8526052957032628</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06611690924173808</v>
+        <v>0.4141396817109631</v>
       </c>
       <c r="L2" t="n">
-        <v>1.067212187305472</v>
+        <v>0.9272501803424936</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06715818446963392</v>
+        <v>0.4206619677101107</v>
       </c>
       <c r="N2" t="n">
-        <v>140.8653230072088</v>
+        <v>37.52620786649902</v>
       </c>
       <c r="O2" t="n">
-        <v>282.2004955504252</v>
+        <v>74.49079145472484</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_1</t>
+          <t>model_1_44_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9991529667450622</v>
+        <v>0.9465137382480963</v>
       </c>
       <c r="C3" t="n">
-        <v>0.821944938793328</v>
+        <v>0.7205919897463806</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8108284356790398</v>
+        <v>0.7837091881101527</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9994575824414926</v>
+        <v>0.9740414440797657</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003525798536783701</v>
+        <v>0.1717062609154184</v>
       </c>
       <c r="G3" t="n">
-        <v>1.190655014157185</v>
+        <v>1.868402651121541</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6766557167785476</v>
+        <v>0.7736596928681347</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002135221626073471</v>
+        <v>0.08266937792342396</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1817889103158828</v>
+        <v>0.8525817544008909</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05937843494724074</v>
+        <v>0.4143745418283059</v>
       </c>
       <c r="L3" t="n">
-        <v>1.054210128316022</v>
+        <v>0.9271676435718758</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06031358594100129</v>
+        <v>0.4209005266395276</v>
       </c>
       <c r="N3" t="n">
-        <v>141.2952966662307</v>
+        <v>37.523940094944</v>
       </c>
       <c r="O3" t="n">
-        <v>282.6304692094471</v>
+        <v>74.48852368316983</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_9</t>
+          <t>model_1_44_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9994139937012541</v>
+        <v>0.9464502342627753</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8215725906428538</v>
+        <v>0.7204489294352785</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8112304166969432</v>
+        <v>0.7838174346669831</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9993476136033305</v>
+        <v>0.9743396854408634</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002439266863041974</v>
+        <v>0.1719101269459754</v>
       </c>
       <c r="G4" t="n">
-        <v>1.193144907953912</v>
+        <v>1.869359296080612</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6752178539857058</v>
+        <v>0.7732725012108481</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002568112924953854</v>
+        <v>0.08171957825549386</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1631407341474543</v>
+        <v>0.8525575301788706</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04938893462145113</v>
+        <v>0.4146204613209235</v>
       </c>
       <c r="L4" t="n">
-        <v>1.03750440311974</v>
+        <v>0.9270811700599494</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05016676097091726</v>
+        <v>0.4211503191183247</v>
       </c>
       <c r="N4" t="n">
-        <v>142.0321155015847</v>
+        <v>37.52156691296923</v>
       </c>
       <c r="O4" t="n">
-        <v>283.3672880448012</v>
+        <v>74.48615050119506</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_8</t>
+          <t>model_1_44_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9993748810843897</v>
+        <v>0.9463837463050927</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8214958731999904</v>
+        <v>0.7203033025380399</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8109654598716287</v>
+        <v>0.7839237874548124</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9993519100351268</v>
+        <v>0.9746349674563882</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002602074174923074</v>
+        <v>0.1721235723847787</v>
       </c>
       <c r="G5" t="n">
-        <v>1.193657917847591</v>
+        <v>1.870333103812998</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6761655891867761</v>
+        <v>0.7728920834554716</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002551200061528832</v>
+        <v>0.08077920312020412</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1691595174501354</v>
+        <v>0.8525349515058435</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05101053003962098</v>
+        <v>0.4148777800567038</v>
       </c>
       <c r="L5" t="n">
-        <v>1.040007610599062</v>
+        <v>0.9269906332665092</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05181389489592258</v>
+        <v>0.4214116903669692</v>
       </c>
       <c r="N5" t="n">
-        <v>141.9028927848199</v>
+        <v>37.5190852320571</v>
       </c>
       <c r="O5" t="n">
-        <v>283.2380653280363</v>
+        <v>74.48366882028292</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_7</t>
+          <t>model_1_44_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9993646545646394</v>
+        <v>0.9463142550735779</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8214802266806994</v>
+        <v>0.7201550440835862</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8109033050213206</v>
+        <v>0.7840281901792158</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9993559663952674</v>
+        <v>0.97492715971181</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002644642336399081</v>
+        <v>0.1723466591950917</v>
       </c>
       <c r="G6" t="n">
-        <v>1.193762546194135</v>
+        <v>1.871324508780597</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6763879134823833</v>
+        <v>0.7725186409638988</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002535232237922339</v>
+        <v>0.07984866784451369</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1701626068848956</v>
+        <v>0.8525113319632196</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05142608614700404</v>
+        <v>0.4151465514671798</v>
       </c>
       <c r="L6" t="n">
-        <v>1.040662107863078</v>
+        <v>0.9268960069087019</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05223599559659321</v>
+        <v>0.4216846946584873</v>
       </c>
       <c r="N6" t="n">
-        <v>141.8704388906974</v>
+        <v>37.51649474009524</v>
       </c>
       <c r="O6" t="n">
-        <v>283.2056114339138</v>
+        <v>74.48107832832106</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_6</t>
+          <t>model_1_44_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9993511175463476</v>
+        <v>0.9462416059234989</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8214177827883127</v>
+        <v>0.7200041465789564</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8107829877883392</v>
+        <v>0.7841305952718175</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9993367322811809</v>
+        <v>0.9752161006460124</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002700990536434437</v>
+        <v>0.1725798838309172</v>
       </c>
       <c r="G7" t="n">
-        <v>1.194180108790053</v>
+        <v>1.872333561088876</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6768182812483636</v>
+        <v>0.7721523438854507</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002610947147426165</v>
+        <v>0.07892848694691222</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1721020729185694</v>
+        <v>0.8524867223160452</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05197105479432217</v>
+        <v>0.4154273508459899</v>
       </c>
       <c r="L7" t="n">
-        <v>1.041528477033751</v>
+        <v>0.9267970804064667</v>
       </c>
       <c r="M7" t="n">
-        <v>0.05278954695533782</v>
+        <v>0.4219699163468172</v>
       </c>
       <c r="N7" t="n">
-        <v>141.8282734158088</v>
+        <v>37.51379011006797</v>
       </c>
       <c r="O7" t="n">
-        <v>283.1634459590252</v>
+        <v>74.47837369829379</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_5</t>
+          <t>model_1_44_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9993397796231432</v>
+        <v>0.946165775937181</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8213823381320079</v>
+        <v>0.7198504840842308</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8107859353976866</v>
+        <v>0.7842311201207318</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9993345083942227</v>
+        <v>0.975501616475497</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002748184944459239</v>
+        <v>0.1728233198645723</v>
       </c>
       <c r="G8" t="n">
-        <v>1.194417127369971</v>
+        <v>1.873361102898656</v>
       </c>
       <c r="H8" t="n">
-        <v>0.67680773782064</v>
+        <v>0.7717927723296498</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002619701457556311</v>
+        <v>0.07801921387011537</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1734848587972563</v>
+        <v>0.852478339670065</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05242313367645279</v>
+        <v>0.41572024230794</v>
       </c>
       <c r="L8" t="n">
-        <v>1.042254104118832</v>
+        <v>0.9266938225527571</v>
       </c>
       <c r="M8" t="n">
-        <v>0.05324874562794892</v>
+        <v>0.4222674205565091</v>
       </c>
       <c r="N8" t="n">
-        <v>141.793629210819</v>
+        <v>37.51097095759506</v>
       </c>
       <c r="O8" t="n">
-        <v>283.1288017540354</v>
+        <v>74.47555454582088</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_3</t>
+          <t>model_1_44_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999317916600149</v>
+        <v>0.9460866555442261</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8213613326160444</v>
+        <v>0.7196940790343525</v>
       </c>
       <c r="D9" t="n">
-        <v>0.810796483445609</v>
+        <v>0.78432952269167</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9993385288471931</v>
+        <v>0.9757835414180772</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002839190361346313</v>
+        <v>0.1730773190485022</v>
       </c>
       <c r="G9" t="n">
-        <v>1.19455759135194</v>
+        <v>1.874406984187372</v>
       </c>
       <c r="H9" t="n">
-        <v>0.676770008064833</v>
+        <v>0.7714407920391131</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002603874982187961</v>
+        <v>0.07712137657532094</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1758645373615126</v>
+        <v>0.8524759445251351</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05328405353711665</v>
+        <v>0.4160256230672604</v>
       </c>
       <c r="L9" t="n">
-        <v>1.043653337590463</v>
+        <v>0.9265860841453292</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0541232241158141</v>
+        <v>0.4225776107575199</v>
       </c>
       <c r="N9" t="n">
-        <v>141.7284727029724</v>
+        <v>37.50803370682407</v>
       </c>
       <c r="O9" t="n">
-        <v>283.0636452461888</v>
+        <v>74.47261729504989</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_2</t>
+          <t>model_1_44_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9992491341171668</v>
+        <v>0.9460041092456115</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8213603288012582</v>
+        <v>0.7195349019078978</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8106661511019493</v>
+        <v>0.7844257884466124</v>
       </c>
       <c r="E10" t="n">
-        <v>0.999394637127727</v>
+        <v>0.9760616878836317</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003125499283034388</v>
+        <v>0.1733423163734836</v>
       </c>
       <c r="G10" t="n">
-        <v>1.194564303866037</v>
+        <v>1.875471402364917</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6772361993010001</v>
+        <v>0.7710964550154933</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002383005262690884</v>
+        <v>0.07623557247475223</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1795097180736408</v>
+        <v>0.8524769362176294</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05590616498235582</v>
+        <v>0.416343988035715</v>
       </c>
       <c r="L10" t="n">
-        <v>1.048055416501327</v>
+        <v>0.9264736806748752</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05678663119516597</v>
+        <v>0.4229009896559795</v>
       </c>
       <c r="N10" t="n">
-        <v>141.5363224759695</v>
+        <v>37.50497386437203</v>
       </c>
       <c r="O10" t="n">
-        <v>282.8714950191858</v>
+        <v>74.46955745259785</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_4</t>
+          <t>model_1_44_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9993277611407241</v>
+        <v>0.9459181263803279</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8213400784661107</v>
+        <v>0.7193728468925833</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8107918082865422</v>
+        <v>0.7845197853959273</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9993265750944355</v>
+        <v>0.9763359092315186</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002798212198384449</v>
+        <v>0.1736183460644187</v>
       </c>
       <c r="G11" t="n">
-        <v>1.194699717950413</v>
+        <v>1.87655506499852</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6767867308377333</v>
+        <v>0.7707602333780502</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002650930817679786</v>
+        <v>0.07536226857014393</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1750725465224158</v>
+        <v>0.8524746626291335</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05289813038647442</v>
+        <v>0.4166753485201863</v>
       </c>
       <c r="L11" t="n">
-        <v>1.043023286993659</v>
+        <v>0.9263565976242762</v>
       </c>
       <c r="M11" t="n">
-        <v>0.05373122306133088</v>
+        <v>0.4232375687368423</v>
       </c>
       <c r="N11" t="n">
-        <v>141.7575491326125</v>
+        <v>37.50179160449012</v>
       </c>
       <c r="O11" t="n">
-        <v>283.092721675829</v>
+        <v>74.46637519271593</v>
       </c>
     </row>
   </sheetData>
